--- a/biology/Zoologie/Ischalea_incerta/Ischalea_incerta.xlsx
+++ b/biology/Zoologie/Ischalea_incerta/Ischalea_incerta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ischalea incerta est une espèce d'araignées aranéomorphes de la famille des Desidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ischalea incerta est une espèce d'araignées aranéomorphes de la famille des Desidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1877 : On some new species of Araneidea, with characters of two new genera and some remarks on the families Podophthalmides and Dinopides. Proceedings of the Zoological Society of London, vol. 1877, p. 557-578 (texte intégral).</t>
         </is>
